--- a/BOT/data/statistics/stat.xlsx
+++ b/BOT/data/statistics/stat.xlsx
@@ -483,7 +483,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1">
-        <v>45396.41508101852</v>
+        <v>45397.63163194444</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1">
-        <v>45396.4780787037</v>
+        <v>45397.83857638889</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="1">
-        <v>45397.30966435185</v>
+        <v>45397.68652777778</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
